--- a/biology/Botanique/Flore_de_La_Réunion/Flore_de_La_Réunion.xlsx
+++ b/biology/Botanique/Flore_de_La_Réunion/Flore_de_La_Réunion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flore_de_La_R%C3%A9union</t>
+          <t>Flore_de_La_Réunion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Flore_de_La_R%C3%A9union</t>
+          <t>Flore_de_La_Réunion</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,7 +518,9 @@
           <t>Histoire de la botanique à La Réunion</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premières études botaniques sur la flore de La Réunion qui nous soient parvenues datent du XVIIIe siècle, avec les travaux de naturalistes comme Philibert Commerson, Pierre Sonnerat, Louis Marie Aubert Du Petit-Thouars ou de visiteurs comme Bory de Saint-Vincent et Charles Gaudichaud-Beaupré. On peut citer encore les observations  d'Achille Richard, Samuel Perrotet, Louis Boivin ou du réunionnais Charles Frappier. Mais c'est à un naturaliste local, Eugène Jacob de Cordemoy, que l'on doit la première Flore de La Réunion, en 1895. En 1952, Pierre Rivals publie un ouvrage sur la flore de La Réunion. C'est ensuite Thérésien Cadet, dans les années soixante, qui modernise la recherche botanique sur l'île. En 1977, il publie La Végétation de l’île de La Réunion. Les travaux d'études se poursuivent aujourd'hui à l'université de La Réunion et au Conservatoire botanique national de Mascarin.
 </t>
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Flore_de_La_R%C3%A9union</t>
+          <t>Flore_de_La_Réunion</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Flore endémique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voir l'article détaillé : Flore endémique de la Réunion.</t>
         </is>
